--- a/Automation-UserCMD/TestData/Outputs/QuestionMetadataOutputError.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/QuestionMetadataOutputError.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="Ree8228bdbe204833"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="R0d9e4d5178884bf0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/QuestionMetadataOutputError.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/QuestionMetadataOutputError.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="R0d9e4d5178884bf0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="R7f9b2cbd3b24437f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/QuestionMetadataOutputError.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/QuestionMetadataOutputError.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="R7f9b2cbd3b24437f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="Ra2fb0985453e4d04"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -32,7 +32,9 @@
       <x:c r="B2" t="str">
         <x:v>
 Mandatory column depthofknowledge is blank for - 1926890
-Mandatory column depthofknowledge is blank for - 1934288</x:v>
+Mandatory column depthofknowledge is blank for - 1934288
+Mandatory column depthofknowledge is blank for - 1934291
+Mandatory column depthofknowledge is blank for - 1934293</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
